--- a/Periode 1/Office bestanden/Factuur rekenen.xlsx
+++ b/Periode 1/Office bestanden/Factuur rekenen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Garage Speedo</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>Trekhaak monteren</t>
+  </si>
+  <si>
+    <t>Gebruikte materialen</t>
+  </si>
+  <si>
+    <t>aflsuitring</t>
+  </si>
+  <si>
+    <t>luchtfilter</t>
+  </si>
+  <si>
+    <t>trekhaak</t>
+  </si>
+  <si>
+    <t>kleinmateriaal</t>
+  </si>
+  <si>
+    <t>olie</t>
   </si>
 </sst>
 </file>
@@ -99,9 +117,7 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thick">
         <color auto="1"/>
       </top>
@@ -114,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -122,8 +138,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -144,7 +161,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,20 +455,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084D11F-6191-4BCA-9468-EBBDBBF1CD32}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -495,7 +515,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>